--- a/Documents/概要设计-数据结构.xlsx
+++ b/Documents/概要设计-数据结构.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="4360" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle" sheetId="2" r:id="rId1"/>
     <sheet name="Map" sheetId="3" r:id="rId2"/>
     <sheet name="Log" sheetId="4" r:id="rId3"/>
+    <sheet name="User" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +377,66 @@
   </si>
   <si>
     <t>Mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,ID,UQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户（乘客）数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1271,4 +1332,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>